--- a/rocketProperties.xlsx
+++ b/rocketProperties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\rocket\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bktf3\Desktop\rocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9ED74B-1524-4923-9F54-82BDA49EC9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067C86D8-AFB7-4FEA-8122-144FFFF18736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
+    <workbookView xWindow="7140" yWindow="3450" windowWidth="21600" windowHeight="11295" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
   </bookViews>
   <sheets>
     <sheet name="black" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Component</t>
   </si>
@@ -81,13 +79,115 @@
   </si>
   <si>
     <t>B6-4</t>
+  </si>
+  <si>
+    <t>Normal Force Coefficient</t>
+  </si>
+  <si>
+    <t>NoseCone</t>
+  </si>
+  <si>
+    <t>CNn</t>
+  </si>
+  <si>
+    <t>CNf</t>
+  </si>
+  <si>
+    <t>finset (4)</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>xr</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Boattail</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>CNcb</t>
+  </si>
+  <si>
+    <t>Center of Pressure Location</t>
+  </si>
+  <si>
+    <t>Xn</t>
+  </si>
+  <si>
+    <t>Nosecone (Ogive)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>Finset</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <t>XF</t>
+  </si>
+  <si>
+    <t>Conical Transitional</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>XT</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>Total CP</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +201,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -124,12 +237,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,34 +576,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C454B9-543C-46D5-9EC8-90FFAB00B659}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>16.309999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -496,92 +626,313 @@
         <v>35.47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>7.92</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <f>3.5/2/100</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>9.73</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <f>5/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <f>3.5/100</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <f>4/100</f>
+        <v>0.04</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <f>3/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>3.23</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <f>5.5/100</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <f>ATAN((1/I6)*(I9+0.5*(I10-I11)))</f>
+        <v>0.50284321092786088</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>27.97</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <f>I6/COS(I12)</f>
+        <v>5.7063561052566644E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2">
+        <f>(1+(I4*I5)/(I6+I5))*((4*I7*(I6/I8)^2)/(1+SQRT(1+((2*I13)/(I11+I10))^2)))</f>
+        <v>15.376368517885188</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17">
+        <f>1/4*PI()*I8^2</f>
+        <v>9.6211275016187424E-4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18">
+        <f>1/4*PI()*0.03^2</f>
+        <v>7.0685834705770342E-4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" ht="15">
+      <c r="H20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="2">
+        <f>(8/(PI()*I8^2))*(I18-I17)</f>
+        <v>-0.53061224489795944</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" ht="15">
+      <c r="G22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" ht="15">
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="2">
+        <f>0.466*0.06</f>
+        <v>2.7960000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10">
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" ht="15">
+      <c r="H26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="2">
+        <f>I25+I9/3*(I11+2*I10)/(I11+I10)+1/6*(I11+I10-(I11*I10)/(I11+I10))</f>
+        <v>0.70897058823529424</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10">
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28">
+        <f>1.2/100</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10">
+      <c r="H29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10" ht="15">
+      <c r="H30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="2">
+        <f>I29+I28/3*(1+(1-I8/0.03)/(1-(I8/0.03)^2))</f>
+        <v>0.74084615384615382</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10" ht="15">
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="2">
+        <f>(I2*I23+I15*I26+I20*I30)/(I2+I15+I20)</f>
+        <v>0.62711408268273972</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/rocketProperties.xlsx
+++ b/rocketProperties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bktf3\Desktop\rocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067C86D8-AFB7-4FEA-8122-144FFFF18736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A75B93-A3C8-437F-A665-20DBB49C13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="3450" windowWidth="21600" windowHeight="11295" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="H32" sqref="H32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/rocketProperties.xlsx
+++ b/rocketProperties.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bktf3\Desktop\rocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A75B93-A3C8-437F-A665-20DBB49C13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190369E9-68E3-4835-A35B-0D9960562F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="3450" windowWidth="21600" windowHeight="11295" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
+    <workbookView xWindow="6795" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
   </bookViews>
   <sheets>
     <sheet name="black" sheetId="1" r:id="rId1"/>
+    <sheet name="MMOI Test on Light Switch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>Component</t>
   </si>
@@ -181,13 +182,112 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Iy</t>
+  </si>
+  <si>
+    <t>Iz</t>
+  </si>
+  <si>
+    <t>Ix</t>
+  </si>
+  <si>
+    <t>kg*m^2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>Experiment for Iy</t>
+  </si>
+  <si>
+    <t>AVG:</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>I spun it too hard and caused it to spin in other direction to and cause this delay in frequency</t>
+  </si>
+  <si>
+    <t>Error(%)</t>
+  </si>
+  <si>
+    <t>Maybe the errors are larger because this remote controller's mass is not evenly distributed like a simple block</t>
+  </si>
+  <si>
+    <t>2nd Attempt for determining Cp</t>
+  </si>
+  <si>
+    <t>Cp determined from provided Excel file that uses Barrowman</t>
+  </si>
+  <si>
+    <t>3rd Attempt for determining Cp</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Experiment for MMOI (I)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>s/10 cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +316,38 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,11 +362,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -576,21 +706,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C454B9-543C-46D5-9EC8-90FFAB00B659}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:I32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.75" customWidth="1"/>
+    <col min="15" max="15" width="28.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,8 +734,14 @@
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15">
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -617,8 +757,14 @@
       <c r="I2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -626,7 +772,7 @@
         <v>35.47</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -645,8 +791,14 @@
       <c r="J4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -663,8 +815,15 @@
       <c r="J5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5">
+        <f>3.5/2/100</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -681,8 +840,14 @@
       <c r="J6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6">
+        <v>0.05</v>
+      </c>
+      <c r="O6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -695,8 +860,14 @@
       <c r="I7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -713,8 +884,14 @@
       <c r="J8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -731,8 +908,14 @@
       <c r="J9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O9">
+        <v>4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -749,8 +932,14 @@
       <c r="J10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O10">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -767,8 +956,14 @@
       <c r="J11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O11">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -785,8 +980,16 @@
       <c r="J12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12">
+        <f>ATAN(1/L6*(I9+0.5*(I10-I11)))</f>
+        <v>0.50284321092786088</v>
+      </c>
+      <c r="O12">
+        <f>ATAN(1/O6*(O9+0.5*(O10-O11)))</f>
+        <v>0.50284321092786088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -800,8 +1003,16 @@
         <f>I6/COS(I12)</f>
         <v>5.7063561052566644E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13">
+        <f>L6/COS(L12)</f>
+        <v>5.7063561052566644E-2</v>
+      </c>
+      <c r="O13">
+        <f>O6/COS(O12)</f>
+        <v>5.7063561052566644E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -809,7 +1020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:15" ht="15">
       <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
@@ -817,8 +1028,37 @@
         <f>(1+(I4*I5)/(I6+I5))*((4*I7*(I6/I8)^2)/(1+SQRT(1+((2*I13)/(I11+I10))^2)))</f>
         <v>15.376368517885188</v>
       </c>
-    </row>
-    <row r="17" spans="7:10">
+      <c r="L15">
+        <f>(1+L4*L5/(L6+L5))*(4*L7*(L6/L8)^2/(1+SQRT(1+(2*L13/(L11+L10))^2)))</f>
+        <v>15.074054670902115</v>
+      </c>
+      <c r="O15">
+        <f>(1+O4*O5/(O6+O5))*(4*O7*(O6/O8)^2/(1+SQRT(1+(2*O13/(O11+O10))^2)))</f>
+        <v>15.151726563717666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>0.124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <f>30/100</f>
+        <v>0.3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" t="s">
         <v>30</v>
       </c>
@@ -832,8 +1072,26 @@
       <c r="J17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="7:10">
+      <c r="L17">
+        <f>L8^2*PI()*1/4</f>
+        <v>9.6211275016187424E-4</v>
+      </c>
+      <c r="O17">
+        <f>O8^2*PI()*1/4</f>
+        <v>9.6211275016187424E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <f>50/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
@@ -844,8 +1102,19 @@
       <c r="J18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="7:10" ht="15">
+      <c r="L18">
+        <f>0.03^2*PI()*1/4</f>
+        <v>7.0685834705770342E-4</v>
+      </c>
+      <c r="O18">
+        <f>0.03^2*PI()*1/4</f>
+        <v>7.0685834705770342E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>33</v>
       </c>
@@ -853,13 +1122,50 @@
         <f>(8/(PI()*I8^2))*(I18-I17)</f>
         <v>-0.53061224489795944</v>
       </c>
-    </row>
-    <row r="22" spans="7:10" ht="15">
+      <c r="L20">
+        <f>2/(L8^2)*(0.03^2-L8^2)</f>
+        <v>-0.53061224489795944</v>
+      </c>
+      <c r="O20">
+        <f>2/O8^2*(0.03^2-O8^2)</f>
+        <v>-0.53061224489795944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15">
+      <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <v>22.57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>22.7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="7:10" ht="15">
+    <row r="23" spans="1:16" ht="15">
+      <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23">
+        <v>22.56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
       <c r="G23" t="s">
         <v>36</v>
       </c>
@@ -870,8 +1176,36 @@
         <f>0.466*0.06</f>
         <v>2.7960000000000002E-2</v>
       </c>
-    </row>
-    <row r="25" spans="7:10">
+      <c r="L23">
+        <f>0.466*0.065</f>
+        <v>3.0290000000000001E-2</v>
+      </c>
+      <c r="O23">
+        <f>0.466*0.06</f>
+        <v>2.7960000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15">
+      <c r="A24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25">
+        <v>22.83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
       <c r="G25" t="s">
         <v>40</v>
       </c>
@@ -881,8 +1215,23 @@
       <c r="I25">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="26" spans="7:10" ht="15">
+      <c r="L25">
+        <v>0.68</v>
+      </c>
+      <c r="O25">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>23.11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>42</v>
       </c>
@@ -890,8 +1239,36 @@
         <f>I25+I9/3*(I11+2*I10)/(I11+I10)+1/6*(I11+I10-(I11*I10)/(I11+I10))</f>
         <v>0.70897058823529424</v>
       </c>
-    </row>
-    <row r="28" spans="7:10">
+      <c r="L26">
+        <f>L25+L9/3*(L11+2*L10)/(L11+L10)+1/6*((L11+L10)-(L11*L10)/(L11+L10))</f>
+        <v>0.70872222222222225</v>
+      </c>
+      <c r="O26">
+        <f>O25+O9/3*(O11+2*O10)/(O11+O10)+1/6*((O11+O10)-(O11*O10)/(O11+O10))</f>
+        <v>0.70903658536585368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15">
+      <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <v>22.46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15">
+      <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>22.7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
       <c r="G28" t="s">
         <v>43</v>
       </c>
@@ -902,16 +1279,46 @@
         <f>1.2/100</f>
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="29" spans="7:10">
+      <c r="L28">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="O28">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15">
+      <c r="A29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29">
+        <v>22.82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
       <c r="H29" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I29">
         <v>0.73499999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="7:10" ht="15">
+      <c r="L29">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>22.77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
       <c r="H30" s="2" t="s">
         <v>45</v>
       </c>
@@ -919,8 +1326,38 @@
         <f>I29+I28/3*(1+(1-I8/0.03)/(1-(I8/0.03)^2))</f>
         <v>0.74084615384615382</v>
       </c>
-    </row>
-    <row r="32" spans="7:10" ht="15">
+      <c r="L30">
+        <f>L29+L28/3*(1+(1-L8/0.03)/(1-(L8/0.03)^2))</f>
+        <v>0.74208974358974356</v>
+      </c>
+      <c r="O30">
+        <f>O29+O28/3*(1+(1-O8/0.03)/(1-(O8/0.03)^2))</f>
+        <v>0.74108974358974355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <f>AVERAGE(B21:B30)</f>
+        <v>22.751999999999999</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32">
+        <f>B31/10</f>
+        <v>2.2751999999999999</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
       <c r="G32" t="s">
         <v>47</v>
       </c>
@@ -932,6 +1369,64 @@
         <v>0.62711408268273972</v>
       </c>
       <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="2">
+        <f>(L2*L23+L15*L26+L20*L30)/(L2+L15+L20)</f>
+        <v>0.62563373166095315</v>
+      </c>
+      <c r="O32" s="2">
+        <f>(O2*O23+O15*O26+O20*O30)/(O2+O15+O20)</f>
+        <v>0.62606014091583495</v>
+      </c>
+      <c r="P32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15">
+      <c r="A33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <f>B16*9.81*B17^2*B32^2/(16*PI()^2*B18)</f>
+        <v>7.1776557921439032E-3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="42.75">
+      <c r="G35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35">
+        <v>0.62709999999999999</v>
+      </c>
+      <c r="J35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="M35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35">
+        <v>0.62609999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15">
+      <c r="G38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="6">
+        <f>AVERAGE(I35,L35,O35)</f>
+        <v>0.62626666666666664</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -939,4 +1434,447 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3389EB6-37DD-4363-B607-B75A9FEA58E6}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1">
+        <v>0.123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <f>27.9/1000</f>
+        <v>2.7899999999999998E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <f>$B4*(B2^2+B3^2)/12</f>
+        <v>7.1470499999999988E-6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <f>B4*(B1^2+B3^2)/12</f>
+        <v>4.2208049999999996E-5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <f>B4*(B1^2+B2^2)/12</f>
+        <v>3.5288849999999997E-5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <f>4.1/100</f>
+        <v>4.0999999999999995E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <f>47/100</f>
+        <v>0.47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="15">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>27.85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>27.81</v>
+      </c>
+      <c r="F24">
+        <v>27.98</v>
+      </c>
+      <c r="H24">
+        <v>27.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>28.25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25">
+        <v>27.36</v>
+      </c>
+      <c r="F25">
+        <v>28.19</v>
+      </c>
+      <c r="H25">
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26">
+        <v>27.78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26">
+        <v>27.25</v>
+      </c>
+      <c r="F26">
+        <v>28.17</v>
+      </c>
+      <c r="H26">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>29.13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>27.12</v>
+      </c>
+      <c r="F27">
+        <v>28.63</v>
+      </c>
+      <c r="H27">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15">
+      <c r="A28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>27.33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28">
+        <v>27.4</v>
+      </c>
+      <c r="F28">
+        <v>27.58</v>
+      </c>
+      <c r="H28">
+        <v>27.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>27.81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29">
+        <v>26.89</v>
+      </c>
+      <c r="F29">
+        <v>27.82</v>
+      </c>
+      <c r="H29">
+        <v>26.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>27.8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>27.1</v>
+      </c>
+      <c r="F30">
+        <v>27.48</v>
+      </c>
+      <c r="H30">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>28.33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>27.11</v>
+      </c>
+      <c r="F31">
+        <v>27.58</v>
+      </c>
+      <c r="H31">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32">
+        <v>28.57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>26.79</v>
+      </c>
+      <c r="F32">
+        <v>28.39</v>
+      </c>
+      <c r="H32">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15">
+      <c r="A33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33">
+        <v>27.49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33">
+        <v>27.2</v>
+      </c>
+      <c r="F33">
+        <v>27.51</v>
+      </c>
+      <c r="H33">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(B24:B33)</f>
+        <v>28.033999999999999</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34">
+        <f>AVERAGE(D24:D33)</f>
+        <v>27.202999999999996</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(F24:F33)</f>
+        <v>27.933</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(H24:H33)</f>
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35">
+        <f>B34/10</f>
+        <v>2.8033999999999999</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <f>D34/10</f>
+        <v>2.7202999999999995</v>
+      </c>
+      <c r="F35">
+        <f>F34/10</f>
+        <v>2.7932999999999999</v>
+      </c>
+      <c r="H35" s="2">
+        <f>H34/10</f>
+        <v>2.7039999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15">
+      <c r="A38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <f>B4*9.81*B10^2*B35^2/(16*PI()^2*B11)</f>
+        <v>4.8718451520918334E-5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38">
+        <f>B4*9.81*B10^2*D35^2/(16*PI()^2*B11)</f>
+        <v>4.5872978676564991E-5</v>
+      </c>
+      <c r="F38">
+        <f>B4*9.81*B10^2*F35^2/(16*PI()^2*B11)</f>
+        <v>4.8368041320525908E-5</v>
+      </c>
+      <c r="H38">
+        <f>B4*9.81*B10^2*H35^2/(16*PI()^2*B11)</f>
+        <v>4.5324885186981875E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15">
+      <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39">
+        <f>ABS(B7-B38)/B7*100</f>
+        <v>15.424549395004835</v>
+      </c>
+      <c r="D39">
+        <f>ABS(B7-D38)/B7*100</f>
+        <v>8.6830087544082097</v>
+      </c>
+      <c r="F39">
+        <f>ABS(B7-F38)/B7*100</f>
+        <v>14.594351836974017</v>
+      </c>
+      <c r="H39">
+        <f>ABS(B7-H38)/B7*100</f>
+        <v>7.3844567256290654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="114">
+      <c r="B40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="185.25">
+      <c r="E42" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/rocketProperties.xlsx
+++ b/rocketProperties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bktf3\Desktop\rocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190369E9-68E3-4835-A35B-0D9960562F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAA23CC-3C8C-48C2-8B25-A97DD5916389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
   </bookViews>
   <sheets>
     <sheet name="black" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -271,9 +274,6 @@
     <t>3rd Attempt for determining Cp</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Experiment for MMOI (I)</t>
   </si>
   <si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>s/10 cycle</t>
+  </si>
+  <si>
+    <t>Barrowman Excel sheet Average</t>
   </si>
 </sst>
 </file>
@@ -708,14 +711,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C454B9-543C-46D5-9EC8-90FFAB00B659}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.625" customWidth="1"/>
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
@@ -902,8 +905,8 @@
         <v>26</v>
       </c>
       <c r="I9">
-        <f>4/100</f>
-        <v>0.04</v>
+        <f>4.15/100</f>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="J9" t="s">
         <v>37</v>
@@ -926,8 +929,8 @@
         <v>27</v>
       </c>
       <c r="I10">
-        <f>3/100</f>
-        <v>0.03</v>
+        <f>2.8/100</f>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="J10" t="s">
         <v>37</v>
@@ -950,8 +953,8 @@
         <v>28</v>
       </c>
       <c r="I11">
-        <f>5.5/100</f>
-        <v>5.5E-2</v>
+        <f>5.4/100</f>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="J11" t="s">
         <v>37</v>
@@ -975,14 +978,14 @@
       </c>
       <c r="I12">
         <f>ATAN((1/I6)*(I9+0.5*(I10-I11)))</f>
-        <v>0.50284321092786088</v>
+        <v>0.51806852845672091</v>
       </c>
       <c r="J12" t="s">
         <v>38</v>
       </c>
       <c r="L12">
         <f>ATAN(1/L6*(I9+0.5*(I10-I11)))</f>
-        <v>0.50284321092786088</v>
+        <v>0.51806852845672091</v>
       </c>
       <c r="O12">
         <f>ATAN(1/O6*(O9+0.5*(O10-O11)))</f>
@@ -1001,11 +1004,11 @@
       </c>
       <c r="I13">
         <f>I6/COS(I12)</f>
-        <v>5.7063561052566644E-2</v>
+        <v>5.7552150263912819E-2</v>
       </c>
       <c r="L13">
         <f>L6/COS(L12)</f>
-        <v>5.7063561052566644E-2</v>
+        <v>5.7552150263912819E-2</v>
       </c>
       <c r="O13">
         <f>O6/COS(O12)</f>
@@ -1026,11 +1029,11 @@
       </c>
       <c r="I15" s="2">
         <f>(1+(I4*I5)/(I6+I5))*((4*I7*(I6/I8)^2)/(1+SQRT(1+((2*I13)/(I11+I10))^2)))</f>
-        <v>15.376368517885188</v>
+        <v>15.097807506044671</v>
       </c>
       <c r="L15">
         <f>(1+L4*L5/(L6+L5))*(4*L7*(L6/L8)^2/(1+SQRT(1+(2*L13/(L11+L10))^2)))</f>
-        <v>15.074054670902115</v>
+        <v>15.019807251622757</v>
       </c>
       <c r="O15">
         <f>(1+O4*O5/(O6+O5))*(4*O7*(O6/O8)^2/(1+SQRT(1+(2*O13/(O11+O10))^2)))</f>
@@ -1113,7 +1116,7 @@
     </row>
     <row r="20" spans="1:16" ht="15">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>33</v>
@@ -1139,7 +1142,7 @@
         <v>22.57</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15">
@@ -1150,7 +1153,7 @@
         <v>22.7</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>34</v>
@@ -1164,7 +1167,7 @@
         <v>22.56</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -1173,16 +1176,16 @@
         <v>35</v>
       </c>
       <c r="I23" s="2">
-        <f>0.466*0.06</f>
-        <v>2.7960000000000002E-2</v>
+        <f>0.466*0.16</f>
+        <v>7.4560000000000001E-2</v>
       </c>
       <c r="L23">
-        <f>0.466*0.065</f>
-        <v>3.0290000000000001E-2</v>
+        <f>0.466*0.165</f>
+        <v>7.6890000000000014E-2</v>
       </c>
       <c r="O23">
-        <f>0.466*0.06</f>
-        <v>2.7960000000000002E-2</v>
+        <f>0.466*0.16</f>
+        <v>7.4560000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15">
@@ -1193,7 +1196,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15">
@@ -1204,7 +1207,7 @@
         <v>22.83</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -1230,14 +1233,14 @@
         <v>23.11</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I26" s="2">
         <f>I25+I9/3*(I11+2*I10)/(I11+I10)+1/6*(I11+I10-(I11*I10)/(I11+I10))</f>
-        <v>0.70897058823529424</v>
+        <v>0.70915040650406513</v>
       </c>
       <c r="L26">
         <f>L25+L9/3*(L11+2*L10)/(L11+L10)+1/6*((L11+L10)-(L11*L10)/(L11+L10))</f>
@@ -1256,7 +1259,7 @@
         <v>22.46</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15">
@@ -1267,7 +1270,7 @@
         <v>22.7</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -1276,8 +1279,8 @@
         <v>44</v>
       </c>
       <c r="I28">
-        <f>1.2/100</f>
-        <v>1.2E-2</v>
+        <f>1.25/100</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L28">
         <v>1.2500000000000001E-2</v>
@@ -1294,7 +1297,7 @@
         <v>22.82</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>46</v>
@@ -1317,14 +1320,14 @@
         <v>22.77</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I30" s="2">
         <f>I29+I28/3*(1+(1-I8/0.03)/(1-(I8/0.03)^2))</f>
-        <v>0.74084615384615382</v>
+        <v>0.74108974358974355</v>
       </c>
       <c r="L30">
         <f>L29+L28/3*(1+(1-L8/0.03)/(1-(L8/0.03)^2))</f>
@@ -1344,7 +1347,7 @@
         <v>22.751999999999999</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15">
@@ -1366,18 +1369,18 @@
       </c>
       <c r="I32" s="2">
         <f>(I2*I23+I15*I26+I20*I30)/(I2+I15+I20)</f>
-        <v>0.62711408268273972</v>
+        <v>0.63151938954032261</v>
       </c>
       <c r="J32" t="s">
         <v>37</v>
       </c>
       <c r="L32" s="2">
         <f>(L2*L23+L15*L26+L20*L30)/(L2+L15+L20)</f>
-        <v>0.62563373166095315</v>
+        <v>0.63101256693939212</v>
       </c>
       <c r="O32" s="2">
         <f>(O2*O23+O15*O26+O20*O30)/(O2+O15+O20)</f>
-        <v>0.62606014091583495</v>
+        <v>0.63166746652663774</v>
       </c>
       <c r="P32" t="s">
         <v>37</v>
@@ -1385,7 +1388,7 @@
     </row>
     <row r="33" spans="1:15" ht="15">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <f>B16*9.81*B17^2*B32^2/(16*PI()^2*B18)</f>
@@ -1403,28 +1406,28 @@
         <v>48</v>
       </c>
       <c r="I35">
-        <v>0.62709999999999999</v>
+        <v>0.63149999999999995</v>
       </c>
       <c r="J35" t="s">
         <v>37</v>
       </c>
       <c r="L35">
-        <v>0.62560000000000004</v>
+        <v>0.63129999999999997</v>
       </c>
       <c r="M35" t="s">
         <v>37</v>
       </c>
       <c r="O35">
-        <v>0.62609999999999999</v>
+        <v>0.63170000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15">
       <c r="G38" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H38" s="6">
         <f>AVERAGE(I35,L35,O35)</f>
-        <v>0.62626666666666664</v>
+        <v>0.63149999999999995</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>37</v>
@@ -1574,7 +1577,7 @@
         <v>27.85</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24">
         <v>27.81</v>
@@ -1594,7 +1597,7 @@
         <v>28.25</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25">
         <v>27.36</v>
@@ -1614,7 +1617,7 @@
         <v>27.78</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26">
         <v>27.25</v>
@@ -1634,7 +1637,7 @@
         <v>29.13</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27">
         <v>27.12</v>
@@ -1654,7 +1657,7 @@
         <v>27.33</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28">
         <v>27.4</v>
@@ -1674,7 +1677,7 @@
         <v>27.81</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29">
         <v>26.89</v>
@@ -1694,7 +1697,7 @@
         <v>27.8</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30">
         <v>27.1</v>
@@ -1714,7 +1717,7 @@
         <v>28.33</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>27.11</v>
@@ -1734,7 +1737,7 @@
         <v>28.57</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>26.79</v>
@@ -1754,7 +1757,7 @@
         <v>27.49</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <v>27.2</v>
@@ -1775,7 +1778,7 @@
         <v>28.033999999999999</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <f>AVERAGE(D24:D33)</f>

--- a/rocketProperties.xlsx
+++ b/rocketProperties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bktf3\Desktop\rocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAA23CC-3C8C-48C2-8B25-A97DD5916389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F42A3C4-790C-4D8A-A3FD-DB9C91BE2885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
   </bookViews>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C454B9-543C-46D5-9EC8-90FFAB00B659}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1176,8 +1176,8 @@
         <v>35</v>
       </c>
       <c r="I23" s="2">
-        <f>0.466*0.16</f>
-        <v>7.4560000000000001E-2</v>
+        <f>0.5*0.16</f>
+        <v>0.08</v>
       </c>
       <c r="L23">
         <f>0.466*0.165</f>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I32" s="2">
         <f>(I2*I23+I15*I26+I20*I30)/(I2+I15+I20)</f>
-        <v>0.63151938954032261</v>
+        <v>0.63217610902895671</v>
       </c>
       <c r="J32" t="s">
         <v>37</v>
@@ -1443,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3389EB6-37DD-4363-B607-B75A9FEA58E6}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>

--- a/rocketProperties.xlsx
+++ b/rocketProperties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bktf3\Desktop\rocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F42A3C4-790C-4D8A-A3FD-DB9C91BE2885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC7E629-7302-47AA-AF68-D1F656E3BD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
   </bookViews>
   <sheets>
     <sheet name="black" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Bonsuck Koo</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{7ABB4D2F-941D-44E5-90E3-52DE91AC22EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Bonsuck Koo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+&lt; this is probably the mass I measured after I closed the nose  cap. It weighed less than the sum of the componenets above probably because I put in less stuffing?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
@@ -290,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +371,19 @@
       <color rgb="FF00B050"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -708,11 +755,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C454B9-543C-46D5-9EC8-90FFAB00B659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C454B9-543C-46D5-9EC8-90FFAB00B659}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1398,7 +1445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="42.75">
+    <row r="35" spans="1:15" ht="28.5">
       <c r="G35" s="4" t="s">
         <v>76</v>
       </c>
@@ -1436,6 +1483,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/rocketProperties.xlsx
+++ b/rocketProperties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bktf3\Desktop\rocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC7E629-7302-47AA-AF68-D1F656E3BD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEB9992-D024-4F68-B768-94D9B278C5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{17CB842C-942D-4B28-920E-3B6EF1C909D4}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
